--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="rsrcSumm" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="dL" sheetId="2" r:id="rId5"/>
@@ -219,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="99">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -409,11 +412,122 @@
   <si>
     <t>For best experience, always edit in Google Sheets.</t>
   </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>/classroom/classroom_G5-8/</t>
+  </si>
+  <si>
+    <t>/classroom/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/18ciTw0tFAMly7AaoWS12Iicm6mb4Wx8o</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/15qBDacXeZMCyaubK3OjLdC2nNQAKM_aA</t>
+  </si>
+  <si>
+    <t>18ciTw0tFAMly7AaoWS12Iicm6mb4Wx8o</t>
+  </si>
+  <si>
+    <t>15qBDacXeZMCyaubK3OjLdC2nNQAKM_aA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>WhatIsBeauty_P1_Presentation</t>
+  </si>
+  <si>
+    <t>WhatIsBeauty_P2_Presentation</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/19uK-BGaMWPolWCmUh5pgm1xWrtL5qTrVOW6HIYNn28Y/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/14JxFjagMmzK_J8YVLP29r9jzUFGoQkxBfVIJOLUStNg/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/19uK-BGaMWPolWCmUh5pgm1xWrtL5qTrVOW6HIYNn28Y/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/14JxFjagMmzK_J8YVLP29r9jzUFGoQkxBfVIJOLUStNg/template/preview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/19uK-BGaMWPolWCmUh5pgm1xWrtL5qTrVOW6HIYNn28Y/present</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/14JxFjagMmzK_J8YVLP29r9jzUFGoQkxBfVIJOLUStNg/present</t>
+  </si>
+  <si>
+    <t>19uK-BGaMWPolWCmUh5pgm1xWrtL5qTrVOW6HIYNn28Y</t>
+  </si>
+  <si>
+    <t>14JxFjagMmzK_J8YVLP29r9jzUFGoQkxBfVIJOLUStNg</t>
+  </si>
+  <si>
+    <t>P1_Classroom-Set_Image Handout</t>
+  </si>
+  <si>
+    <t>TEACHER</t>
+  </si>
+  <si>
+    <t>WhatIsBeauty_P1_G5-8</t>
+  </si>
+  <si>
+    <t>WhatIsBeauty_P2_G5-8_wksht(Teacher)</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1NjSu7JWadkbN8qN5i5XnEwqrB8y7lmI1Kc3MvkLckwg/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1mq85AsTog7d3QCcqcy_xU7r-jlrjcRimC1oOG8TkF9Q/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1b5pBKdYlMukFkCQjwposyRHdL3QMrq3-tgskbRXGkgo/edit?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1NjSu7JWadkbN8qN5i5XnEwqrB8y7lmI1Kc3MvkLckwg/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1mq85AsTog7d3QCcqcy_xU7r-jlrjcRimC1oOG8TkF9Q/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1b5pBKdYlMukFkCQjwposyRHdL3QMrq3-tgskbRXGkgo/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1NjSu7JWadkbN8qN5i5XnEwqrB8y7lmI1Kc3MvkLckwg/export?format=pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1mq85AsTog7d3QCcqcy_xU7r-jlrjcRimC1oOG8TkF9Q/export?format=pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1b5pBKdYlMukFkCQjwposyRHdL3QMrq3-tgskbRXGkgo/export/pdf</t>
+  </si>
+  <si>
+    <t>1NjSu7JWadkbN8qN5i5XnEwqrB8y7lmI1Kc3MvkLckwg</t>
+  </si>
+  <si>
+    <t>1mq85AsTog7d3QCcqcy_xU7r-jlrjcRimC1oOG8TkF9Q</t>
+  </si>
+  <si>
+    <t>1b5pBKdYlMukFkCQjwposyRHdL3QMrq3-tgskbRXGkgo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm:ss"/>
+  </numFmts>
   <fonts count="31">
     <font>
       <sz val="10.0"/>
@@ -584,7 +698,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +739,14 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E6FC"/>
         <bgColor rgb="FFD9E6FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -683,10 +805,25 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="307">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -815,9 +952,739 @@
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="XLConnect.Header" xfId="1"/>
+    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="XLConnect.Numeric" xfId="3"/>
+    <cellStyle name="XLConnect.Boolean" xfId="4"/>
+    <cellStyle name="XLConnect.DateTime" xfId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1108,6 +1975,7 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1116,12 +1984,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="29.71"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="8.0"/>
-    <col customWidth="1" min="5" max="5" width="25.71"/>
-    <col customWidth="1" min="6" max="25" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.29" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.71" collapsed="true"/>
+    <col min="6" max="25" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -3838,6 +4706,7 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3846,13 +4715,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="2" max="2" width="12.29"/>
-    <col customWidth="1" min="3" max="3" width="10.71"/>
-    <col customWidth="1" min="4" max="4" width="22.86"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="112.43"/>
-    <col customWidth="1" min="7" max="26" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.29" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.71" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.86" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="112.43" collapsed="true"/>
+    <col min="7" max="26" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -3906,20 +4775,46 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="259" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="261" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="265" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="267" t="s">
+        <v>67</v>
+      </c>
       <c r="F3" s="14"/>
+      <c r="G3" t="s" s="269">
+        <v>69</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="262" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="264" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="266" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="268" t="s">
+        <v>68</v>
+      </c>
       <c r="F4" s="14"/>
+      <c r="G4" t="s" s="270">
+        <v>70</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14"/>
@@ -4978,6 +5873,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -4986,17 +5882,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.71"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="8.43"/>
-    <col customWidth="1" min="5" max="5" width="28.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="7" width="15.0"/>
-    <col customWidth="1" min="8" max="9" width="21.43"/>
-    <col customWidth="1" min="10" max="10" width="35.14"/>
-    <col customWidth="1" min="12" max="12" width="16.71"/>
-    <col customWidth="1" min="14" max="14" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="9.71" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.43" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.43" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.43" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.43" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="21.43" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="35.14" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.71" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -5069,23 +5965,57 @@
     </row>
     <row r="3">
       <c r="A3" s="23"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3"/>
+      <c r="C3" s="271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="273" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="275" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="277" t="s">
+        <v>75</v>
+      </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="279" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="281" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s" s="283">
+        <v>81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4"/>
+      <c r="C4" s="272" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="274" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="276" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="278" t="s">
+        <v>76</v>
+      </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="280" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="282" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s" s="284">
+        <v>82</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23"/>
@@ -6532,6 +7462,7 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -6540,18 +7471,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="11.71"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="5" width="13.86"/>
-    <col customWidth="1" min="6" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="29.71"/>
-    <col customWidth="1" min="8" max="8" width="16.43"/>
-    <col customWidth="1" min="9" max="9" width="19.14"/>
-    <col customWidth="1" min="10" max="10" width="21.43"/>
-    <col customWidth="1" min="11" max="11" width="19.0"/>
-    <col customWidth="1" min="12" max="31" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="13.14" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.43" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.43" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.86" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.86" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.43" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.14" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="12" max="31" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -6646,15 +7577,31 @@
     </row>
     <row r="3">
       <c r="A3" s="23"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3"/>
+      <c r="C3" s="285" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="288" t="s">
+        <v>71</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="292" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="295" t="s">
+        <v>87</v>
+      </c>
       <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="298" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="301" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s" s="304">
+        <v>96</v>
+      </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
@@ -6665,15 +7612,33 @@
     </row>
     <row r="4">
       <c r="A4" s="23"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="B4"/>
+      <c r="C4" s="286" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="289" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="291" t="s">
+        <v>84</v>
+      </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="293" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="296" t="s">
+        <v>88</v>
+      </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="299" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="302" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="305">
+        <v>97</v>
+      </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
@@ -6684,15 +7649,31 @@
     </row>
     <row r="5">
       <c r="A5" s="23"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5"/>
+      <c r="C5" s="287" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="290" t="s">
+        <v>83</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="294" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="297" t="s">
+        <v>89</v>
+      </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="300" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s" s="306">
+        <v>98</v>
+      </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
@@ -8818,6 +9799,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -8826,19 +9808,19 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.29"/>
-    <col customWidth="1" min="2" max="2" width="12.86"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="7.14"/>
-    <col customWidth="1" min="5" max="5" width="19.43"/>
-    <col customWidth="1" min="6" max="6" width="17.71"/>
-    <col customWidth="1" min="7" max="7" width="15.43"/>
-    <col customWidth="1" min="8" max="8" width="19.29"/>
-    <col customWidth="1" min="9" max="9" width="15.14"/>
-    <col customWidth="1" min="10" max="10" width="21.86"/>
-    <col customWidth="1" min="11" max="11" width="28.14"/>
-    <col customWidth="1" min="13" max="13" width="16.71"/>
-    <col customWidth="1" min="15" max="15" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.86" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.43" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.43" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.71" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.43" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.29" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.14" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.86" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.14" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.71" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
@@ -10456,6 +11438,7 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -10464,19 +11447,19 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="8.29"/>
-    <col customWidth="1" min="3" max="3" width="10.29"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="5" width="10.29"/>
-    <col customWidth="1" min="6" max="6" width="39.0"/>
-    <col customWidth="1" min="7" max="7" width="22.43"/>
-    <col customWidth="1" min="8" max="8" width="17.43"/>
-    <col customWidth="1" min="9" max="9" width="15.43"/>
-    <col customWidth="1" min="10" max="10" width="17.0"/>
-    <col customWidth="1" min="11" max="11" width="16.43"/>
-    <col customWidth="1" min="12" max="13" width="10.86"/>
-    <col customWidth="1" min="14" max="31" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.29" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.29" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.43" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.29" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.43" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.43" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.43" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.43" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="14" max="31" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -12797,6 +13780,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -12805,19 +13789,19 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.86"/>
-    <col customWidth="1" min="2" max="2" width="10.29"/>
-    <col customWidth="1" min="3" max="3" width="11.14"/>
-    <col customWidth="1" min="4" max="4" width="13.57"/>
-    <col customWidth="1" min="5" max="5" width="15.43"/>
-    <col customWidth="1" min="6" max="6" width="47.43"/>
-    <col customWidth="1" min="7" max="7" width="26.57"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
-    <col customWidth="1" min="9" max="9" width="14.29"/>
-    <col customWidth="1" min="10" max="10" width="20.43"/>
-    <col customWidth="1" min="11" max="12" width="12.29"/>
-    <col customWidth="1" min="13" max="13" width="16.71"/>
-    <col customWidth="1" min="14" max="15" width="16.29"/>
+    <col min="1" max="1" customWidth="true" width="11.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.29" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.14" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.57" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.43" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.43" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.29" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.43" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="12.29" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.71" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="16.29" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -21514,37 +22498,37 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1000">
     <cfRule type="expression" dxfId="4" priority="2">
-      <formula>if($A3&lt;&gt;"",0,if($C3&amp;$D3&amp;$E3&amp;$F3&amp;$G3&amp;$M3="",0,1))</formula>
+      <formula><![CDATA[if($A3<>"",0,if($C3&$D3&$E3&$F3&$G3&$M3="",0,1))]]></formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C1000">
     <cfRule type="expression" dxfId="4" priority="3">
-      <formula>if($C3&lt;&gt;"",0,if($A3&amp;$D3&amp;$E3&amp;$F3&amp;$G3&amp;$M3="",0,1))</formula>
+      <formula><![CDATA[if($C3<>"",0,if($A3&$D3&$E3&$F3&$G3&$M3="",0,1))]]></formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D1000">
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>if($D3&lt;&gt;"",0,if($A3&amp;$C3&amp;$E3&amp;$F3&amp;$G3&amp;$M3="",0,1))</formula>
+      <formula><![CDATA[if($D3<>"",0,if($A3&$C3&$E3&$F3&$G3&$M3="",0,1))]]></formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E1000">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>if($E3&lt;&gt;"",0,if($A3&amp;$C3&amp;$D3&amp;$F3&amp;$G3&amp;$M3="",0,1))</formula>
+      <formula><![CDATA[if($E3<>"",0,if($A3&$C3&$D3&$F3&$G3&$M3="",0,1))]]></formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F1000">
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>if($F3&lt;&gt;"",0,if($A3&amp;$C3&amp;$D3&amp;$E3&amp;$G3&amp;$M3="",0,1))</formula>
+      <formula><![CDATA[if($F3<>"",0,if($A3&$C3&$D3&$E3&$G3&$M3="",0,1))]]></formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G1000">
     <cfRule type="expression" dxfId="4" priority="7">
-      <formula>if($G3&lt;&gt;"",0,if($A3&amp;$C3&amp;$D3&amp;$E3&amp;$F3&amp;$M3="",0,1))</formula>
+      <formula><![CDATA[if($G3<>"",0,if($A3&$C3&$D3&$E3&$F3&$M3="",0,1))]]></formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M1000">
     <cfRule type="expression" dxfId="4" priority="8">
-      <formula>if($M3&lt;&gt;"",0,if($A3&amp;$C3&amp;$D3&amp;$E3&amp;$F3&amp;$G3="",0,1))</formula>
+      <formula><![CDATA[if($M3<>"",0,if($A3&$C3&$D3&$E3&$F3&$G3="",0,1))]]></formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions/>
@@ -21560,13 +22544,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="150.0"/>
-    <col customWidth="1" min="2" max="6" width="10.71"/>
+    <col min="1" max="1" customWidth="true" width="150.0" collapsed="true"/>
+    <col min="2" max="6" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1">
